--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.890361207483</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N2">
-        <v>127.890361207483</v>
+        <v>418.183891</v>
       </c>
       <c r="O2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q2">
-        <v>346.3862103564699</v>
+        <v>3937.731358614404</v>
       </c>
       <c r="R2">
-        <v>346.3862103564699</v>
+        <v>35439.58222752964</v>
       </c>
       <c r="S2">
-        <v>0.07473308590659343</v>
+        <v>0.4178273287825757</v>
       </c>
       <c r="T2">
-        <v>0.07473308590659343</v>
+        <v>0.4178273287825757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.50184202892109</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
-        <v>3.50184202892109</v>
+        <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q3">
-        <v>9.484606800797859</v>
+        <v>1.419191580424333</v>
       </c>
       <c r="R3">
-        <v>9.484606800797859</v>
+        <v>12.772724223819</v>
       </c>
       <c r="S3">
-        <v>0.002046311064475801</v>
+        <v>0.0001505884919706854</v>
       </c>
       <c r="T3">
-        <v>0.002046311064475801</v>
+        <v>0.0001505884919706854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.14098823574429</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N4">
-        <v>5.14098823574429</v>
+        <v>12.662099</v>
       </c>
       <c r="O4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q4">
-        <v>13.92417235867861</v>
+        <v>119.2297105920325</v>
       </c>
       <c r="R4">
-        <v>13.92417235867861</v>
+        <v>1073.067395328293</v>
       </c>
       <c r="S4">
-        <v>0.003004150679059809</v>
+        <v>0.01265130273023961</v>
       </c>
       <c r="T4">
-        <v>0.003004150679059809</v>
+        <v>0.01265130273023961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806379720358944</v>
+        <v>6.099343</v>
       </c>
       <c r="N5">
-        <v>0.806379720358944</v>
+        <v>18.298029</v>
       </c>
       <c r="O5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q5">
-        <v>2.184048999519921</v>
+        <v>172.2991347702003</v>
       </c>
       <c r="R5">
-        <v>2.184048999519921</v>
+        <v>1550.692212931803</v>
       </c>
       <c r="S5">
-        <v>0.0004712102174545558</v>
+        <v>0.01828242728521579</v>
       </c>
       <c r="T5">
-        <v>0.0004712102174545558</v>
+        <v>0.01828242728521579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424548857538132</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N6">
-        <v>0.424548857538132</v>
+        <v>2.483471</v>
       </c>
       <c r="O6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q6">
-        <v>1.14987453694984</v>
+        <v>23.38502712652189</v>
       </c>
       <c r="R6">
-        <v>1.14987453694984</v>
+        <v>210.465244138697</v>
       </c>
       <c r="S6">
-        <v>0.0002480862978443671</v>
+        <v>0.00248135348197569</v>
       </c>
       <c r="T6">
-        <v>0.0002480862978443671</v>
+        <v>0.002481353481975689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.80091829163037</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H7">
-        <v>7.80091829163037</v>
+        <v>84.746407</v>
       </c>
       <c r="I7">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J7">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.890361207483</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N7">
-        <v>127.890361207483</v>
+        <v>2.385842</v>
       </c>
       <c r="O7">
-        <v>0.9283285166052262</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P7">
-        <v>0.9283285166052262</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q7">
-        <v>997.6622580666692</v>
+        <v>22.46572635218822</v>
       </c>
       <c r="R7">
-        <v>997.6622580666692</v>
+        <v>202.191537169694</v>
       </c>
       <c r="S7">
-        <v>0.215246383974505</v>
+        <v>0.002383807724810897</v>
       </c>
       <c r="T7">
-        <v>0.215246383974505</v>
+        <v>0.002383807724810897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.50184202892109</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N8">
-        <v>3.50184202892109</v>
+        <v>418.183891</v>
       </c>
       <c r="O8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q8">
-        <v>27.31758353781054</v>
+        <v>1124.698837437367</v>
       </c>
       <c r="R8">
-        <v>27.31758353781054</v>
+        <v>10122.2895369363</v>
       </c>
       <c r="S8">
-        <v>0.005893789233672955</v>
+        <v>0.1193402668019184</v>
       </c>
       <c r="T8">
-        <v>0.005893789233672955</v>
+        <v>0.1193402668019183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.14098823574429</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
-        <v>5.14098823574429</v>
+        <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q9">
-        <v>40.10442916527418</v>
+        <v>0.4053509432816667</v>
       </c>
       <c r="R9">
-        <v>40.10442916527418</v>
+        <v>3.648158489534999</v>
       </c>
       <c r="S9">
-        <v>0.008652560813431196</v>
+        <v>4.301123830612771E-05</v>
       </c>
       <c r="T9">
-        <v>0.008652560813431196</v>
+        <v>4.301123830612769E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806379720358944</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N10">
-        <v>0.806379720358944</v>
+        <v>12.662099</v>
       </c>
       <c r="O10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q10">
-        <v>6.290502310547869</v>
+        <v>34.05451126001611</v>
       </c>
       <c r="R10">
-        <v>6.290502310547869</v>
+        <v>306.490601340145</v>
       </c>
       <c r="S10">
-        <v>0.001357180613760589</v>
+        <v>0.003613477958987913</v>
       </c>
       <c r="T10">
-        <v>0.001357180613760589</v>
+        <v>0.003613477958987912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.424548857538132</v>
+        <v>6.099343</v>
       </c>
       <c r="N11">
-        <v>0.424548857538132</v>
+        <v>18.298029</v>
       </c>
       <c r="O11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q11">
-        <v>3.31187094845999</v>
+        <v>49.21225419392167</v>
       </c>
       <c r="R11">
-        <v>3.31187094845999</v>
+        <v>442.910287745295</v>
       </c>
       <c r="S11">
-        <v>0.0007145386528179052</v>
+        <v>0.005221845484261468</v>
       </c>
       <c r="T11">
-        <v>0.0007145386528179052</v>
+        <v>0.005221845484261466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0618169022654648</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H12">
-        <v>0.0618169022654648</v>
+        <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.001837366026911139</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J12">
-        <v>0.001837366026911139</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.890361207483</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N12">
-        <v>127.890361207483</v>
+        <v>2.483471</v>
       </c>
       <c r="O12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q12">
-        <v>7.905785959457968</v>
+        <v>6.679255243022777</v>
       </c>
       <c r="R12">
-        <v>7.905785959457968</v>
+        <v>60.11329718720499</v>
       </c>
       <c r="S12">
-        <v>0.001705679278223256</v>
+        <v>0.0007087267063924925</v>
       </c>
       <c r="T12">
-        <v>0.001705679278223256</v>
+        <v>0.0007087267063924922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0618169022654648</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H13">
-        <v>0.0618169022654648</v>
+        <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.001837366026911139</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J13">
-        <v>0.001837366026911139</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.50184202892109</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N13">
-        <v>3.50184202892109</v>
+        <v>2.385842</v>
       </c>
       <c r="O13">
-        <v>0.02541911513425251</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P13">
-        <v>0.02541911513425251</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q13">
-        <v>0.216473026450912</v>
+        <v>6.416683620434445</v>
       </c>
       <c r="R13">
-        <v>0.216473026450912</v>
+        <v>57.75015258391</v>
       </c>
       <c r="S13">
-        <v>4.670421858181835E-05</v>
+        <v>0.0006808655879746037</v>
       </c>
       <c r="T13">
-        <v>4.670421858181835E-05</v>
+        <v>0.0006808655879746035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H14">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.14098823574429</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N14">
-        <v>5.14098823574429</v>
+        <v>418.183891</v>
       </c>
       <c r="O14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q14">
-        <v>0.3177999673169091</v>
+        <v>8.964375746983109</v>
       </c>
       <c r="R14">
-        <v>0.3177999673169091</v>
+        <v>80.67938172284799</v>
       </c>
       <c r="S14">
-        <v>6.856558242940904E-05</v>
+        <v>0.0009511977408949592</v>
       </c>
       <c r="T14">
-        <v>6.856558242940904E-05</v>
+        <v>0.0009511977408949591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H15">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.806379720358944</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
-        <v>0.806379720358944</v>
+        <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q15">
-        <v>0.04984789636228168</v>
+        <v>0.003230836597333333</v>
       </c>
       <c r="R15">
-        <v>0.04984789636228168</v>
+        <v>0.029077529376</v>
       </c>
       <c r="S15">
-        <v>1.075472120345561E-05</v>
+        <v>3.42819685310321E-07</v>
       </c>
       <c r="T15">
-        <v>1.075472120345561E-05</v>
+        <v>3.42819685310321E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H16">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.424548857538132</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N16">
-        <v>0.424548857538132</v>
+        <v>12.662099</v>
       </c>
       <c r="O16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P16">
-        <v>0.00308170848392097</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q16">
-        <v>0.02624429523334944</v>
+        <v>0.2714303817635556</v>
       </c>
       <c r="R16">
-        <v>0.02624429523334944</v>
+        <v>2.442873435872</v>
       </c>
       <c r="S16">
-        <v>5.662226473200223E-06</v>
+        <v>2.88011093277343E-05</v>
       </c>
       <c r="T16">
-        <v>5.662226473200223E-06</v>
+        <v>2.88011093277343E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.073107193021</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H17">
-        <v>23.073107193021</v>
+        <v>0.192928</v>
       </c>
       <c r="I17">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J17">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.890361207483</v>
+        <v>6.099343</v>
       </c>
       <c r="N17">
-        <v>127.890361207483</v>
+        <v>18.298029</v>
       </c>
       <c r="O17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P17">
-        <v>0.9283285166052262</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q17">
-        <v>2950.828013094429</v>
+        <v>0.3922446821013333</v>
       </c>
       <c r="R17">
-        <v>2950.828013094429</v>
+        <v>3.530202138912</v>
       </c>
       <c r="S17">
-        <v>0.6366433674459044</v>
+        <v>4.162055072472998E-05</v>
       </c>
       <c r="T17">
-        <v>0.6366433674459044</v>
+        <v>4.162055072472997E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.073107193021</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H18">
-        <v>23.073107193021</v>
+        <v>0.192928</v>
       </c>
       <c r="I18">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J18">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.50184202892109</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N18">
-        <v>3.50184202892109</v>
+        <v>2.483471</v>
       </c>
       <c r="O18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P18">
-        <v>0.02541911513425251</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q18">
-        <v>80.79837650632244</v>
+        <v>0.05323678812088888</v>
       </c>
       <c r="R18">
-        <v>80.79837650632244</v>
+        <v>0.4791310930879999</v>
       </c>
       <c r="S18">
-        <v>0.01743231061752194</v>
+        <v>5.648883315732852E-06</v>
       </c>
       <c r="T18">
-        <v>0.01743231061752194</v>
+        <v>5.64888331573285E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.073107193021</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H19">
-        <v>23.073107193021</v>
+        <v>0.192928</v>
       </c>
       <c r="I19">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J19">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.14098823574429</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N19">
-        <v>5.14098823574429</v>
+        <v>2.385842</v>
       </c>
       <c r="O19">
-        <v>0.03731732350830338</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P19">
-        <v>0.03731732350830338</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q19">
-        <v>118.6185726413879</v>
+        <v>0.05114396948622223</v>
       </c>
       <c r="R19">
-        <v>118.6185726413879</v>
+        <v>0.460295725376</v>
       </c>
       <c r="S19">
-        <v>0.02559204643338297</v>
+        <v>5.426817171521109E-06</v>
       </c>
       <c r="T19">
-        <v>0.02559204643338297</v>
+        <v>5.426817171521108E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H20">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.806379720358944</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N20">
-        <v>0.806379720358944</v>
+        <v>418.183891</v>
       </c>
       <c r="O20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P20">
-        <v>0.005853336268296935</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q20">
-        <v>18.60568572612021</v>
+        <v>18.56346171075066</v>
       </c>
       <c r="R20">
-        <v>18.60568572612021</v>
+        <v>167.071155396756</v>
       </c>
       <c r="S20">
-        <v>0.004014190715878334</v>
+        <v>0.001969743721239999</v>
       </c>
       <c r="T20">
-        <v>0.004014190715878334</v>
+        <v>0.001969743721239999</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.133172</v>
+      </c>
+      <c r="H21">
+        <v>0.399516</v>
+      </c>
+      <c r="I21">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J21">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050239</v>
+      </c>
+      <c r="N21">
+        <v>0.150717</v>
+      </c>
+      <c r="O21">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P21">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q21">
+        <v>0.006690428107999999</v>
+      </c>
+      <c r="R21">
+        <v>0.06021385297199999</v>
+      </c>
+      <c r="S21">
+        <v>7.099122439274663E-07</v>
+      </c>
+      <c r="T21">
+        <v>7.099122439274662E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.133172</v>
+      </c>
+      <c r="H22">
+        <v>0.399516</v>
+      </c>
+      <c r="I22">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J22">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.662099</v>
+      </c>
+      <c r="O22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q22">
+        <v>0.5620790160093333</v>
+      </c>
+      <c r="R22">
+        <v>5.058711144084</v>
+      </c>
+      <c r="S22">
+        <v>5.964144133655611E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.96414413365561E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.133172</v>
+      </c>
+      <c r="H23">
+        <v>0.399516</v>
+      </c>
+      <c r="I23">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J23">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.099343</v>
+      </c>
+      <c r="N23">
+        <v>18.298029</v>
+      </c>
+      <c r="O23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q23">
+        <v>0.8122617059959999</v>
+      </c>
+      <c r="R23">
+        <v>7.310355353964</v>
+      </c>
+      <c r="S23">
+        <v>8.618798693471773E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.618798693471771E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.133172</v>
+      </c>
+      <c r="H24">
+        <v>0.399516</v>
+      </c>
+      <c r="I24">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J24">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N24">
+        <v>2.483471</v>
+      </c>
+      <c r="O24">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P24">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q24">
+        <v>0.1102429333373333</v>
+      </c>
+      <c r="R24">
+        <v>0.9921864000359999</v>
+      </c>
+      <c r="S24">
+        <v>1.169772799577213E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.169772799577213E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133172</v>
+      </c>
+      <c r="H25">
+        <v>0.399516</v>
+      </c>
+      <c r="I25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.385842</v>
+      </c>
+      <c r="O25">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P25">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q25">
+        <v>0.1059091169413333</v>
+      </c>
+      <c r="R25">
+        <v>0.9531820524720001</v>
+      </c>
+      <c r="S25">
+        <v>1.12378726213791E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.12378726213791E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>139.3946303333333</v>
+      </c>
+      <c r="N26">
+        <v>418.183891</v>
+      </c>
+      <c r="O26">
+        <v>0.9207771771472824</v>
+      </c>
+      <c r="P26">
+        <v>0.9207771771472822</v>
+      </c>
+      <c r="Q26">
+        <v>3587.725102521176</v>
+      </c>
+      <c r="R26">
+        <v>32289.52592269059</v>
+      </c>
+      <c r="S26">
+        <v>0.3806886401006534</v>
+      </c>
+      <c r="T26">
+        <v>0.3806886401006533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H27">
+        <v>77.213701</v>
+      </c>
+      <c r="I27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.050239</v>
+      </c>
+      <c r="N27">
+        <v>0.150717</v>
+      </c>
+      <c r="O27">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P27">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q27">
+        <v>1.293046374846333</v>
+      </c>
+      <c r="R27">
+        <v>11.637417373617</v>
+      </c>
+      <c r="S27">
+        <v>0.0001372033954556374</v>
+      </c>
+      <c r="T27">
+        <v>0.0001372033954556374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H28">
+        <v>77.213701</v>
+      </c>
+      <c r="I28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N28">
+        <v>12.662099</v>
+      </c>
+      <c r="O28">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P28">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q28">
+        <v>108.6319473575999</v>
+      </c>
+      <c r="R28">
+        <v>977.6875262183989</v>
+      </c>
+      <c r="S28">
+        <v>0.01152678846046187</v>
+      </c>
+      <c r="T28">
+        <v>0.01152678846046187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H29">
+        <v>77.213701</v>
+      </c>
+      <c r="I29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.099343</v>
+      </c>
+      <c r="N29">
+        <v>18.298029</v>
+      </c>
+      <c r="O29">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P29">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q29">
+        <v>156.9842822328143</v>
+      </c>
+      <c r="R29">
+        <v>1412.858540095329</v>
+      </c>
+      <c r="S29">
+        <v>0.01665738907320158</v>
+      </c>
+      <c r="T29">
+        <v>0.01665738907320157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H21">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I21">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J21">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="N21">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="O21">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="P21">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="Q21">
-        <v>9.79566129865192</v>
-      </c>
-      <c r="R21">
-        <v>9.79566129865192</v>
-      </c>
-      <c r="S21">
-        <v>0.002113421306785497</v>
-      </c>
-      <c r="T21">
-        <v>0.002113421306785497</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H30">
+        <v>77.213701</v>
+      </c>
+      <c r="I30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N30">
+        <v>2.483471</v>
+      </c>
+      <c r="O30">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P30">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q30">
+        <v>21.30644302624122</v>
+      </c>
+      <c r="R30">
+        <v>191.757987236171</v>
+      </c>
+      <c r="S30">
+        <v>0.002260797744883506</v>
+      </c>
+      <c r="T30">
+        <v>0.002260797744883505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H31">
+        <v>77.213701</v>
+      </c>
+      <c r="I31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N31">
+        <v>2.385842</v>
+      </c>
+      <c r="O31">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P31">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q31">
+        <v>20.46885453569356</v>
+      </c>
+      <c r="R31">
+        <v>184.219690821242</v>
+      </c>
+      <c r="S31">
+        <v>0.00217192236722247</v>
+      </c>
+      <c r="T31">
+        <v>0.002171922367222469</v>
       </c>
     </row>
   </sheetData>
